--- a/raw_data/umd/2023/RL_2023-07-12_SBay2.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-12_SBay2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_12_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B981A3F8-E413-D04D-9FF7-13905BA2CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31590EF7-5BEC-A443-BAB2-50A3F5686B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{69B83945-BA06-F745-A066-22D20E18FA33}"/>
   </bookViews>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay2</t>
-  </si>
-  <si>
-    <t>Location ID = cdec9030-30bd-4ddd-a152-b63caca6676c</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-12 11:49:01</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:04</t>
-  </si>
-  <si>
-    <t>Readings = 65</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -120,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -627,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1008,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7334989B-ABAF-7541-8FAB-ED87444ECC56}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1034,192 +997,1133 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45119.492372685185</v>
+      </c>
+      <c r="B2" s="3">
+        <v>36.203519999999997</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.76227</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.4908140000000003E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99878319999999998</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4.2190229999999997E-5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.3089575</v>
+      </c>
+      <c r="J2" s="3">
+        <v>16.951039999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.34958149999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.4187289999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.2457802</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.70983339999999995</v>
+      </c>
+      <c r="O2" s="3">
+        <v>992.16989999999998</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45119.492384259262</v>
+      </c>
+      <c r="B3" s="3">
+        <v>35.689610000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.7609250000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.4906920000000007E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99878310000000003</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.2189450000000003E-5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.31198300000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>16.951219999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.34924959999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.417305</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.24554690000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.71023420000000004</v>
+      </c>
+      <c r="O3" s="3">
+        <v>992.16970000000003</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45119.492395833331</v>
+      </c>
+      <c r="B4" s="3">
+        <v>35.175690000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.7595799999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.490572E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99878290000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.2188679999999997E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.31500860000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <v>16.9514</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.3489177</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.4158809999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.24531359999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.71063509999999996</v>
+      </c>
+      <c r="O4" s="3">
+        <v>992.16949999999997</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45119.492407407408</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37.798839999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.6951790000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.4895960000000003E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99878169999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.218194E-5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.41119460000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>16.97043</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.41531459999999998</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.581269</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.29199520000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.71073839999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <v>992.12630000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45119.492418981485</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37.851039999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.6914449999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.4895040000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99878160000000005</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.2181329999999998E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.41652109999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>16.971430000000002</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.41881940000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.5897030000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.29445939999999998</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.7109103</v>
+      </c>
+      <c r="O6" s="3">
+        <v>992.1241</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45119.492430555554</v>
+      </c>
+      <c r="B7" s="3">
+        <v>37.903239999999997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.68771</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.489412E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99878149999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.2180720000000002E-5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.42184759999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>16.972429999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.42232429999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5981380000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.29692350000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.71108199999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>992.12180000000001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45119.492442129631</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45.531640000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.671297</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.4872819999999998E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99877899999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.2167279999999997E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.36560480000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16.97315</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.0514939999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3.0503459999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.73927410000000005</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.70320879999999997</v>
+      </c>
+      <c r="O8" s="3">
+        <v>992.1644</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45119.4924537037</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45.983040000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.6690399999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.4871479999999995E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99877890000000003</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.2166419999999998E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.36475239999999998</v>
+      </c>
+      <c r="J9" s="3">
+        <v>16.973600000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.085995</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.1302349999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.76353040000000005</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.70279910000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>992.16570000000002</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45119.492465277777</v>
+      </c>
+      <c r="B10" s="3">
+        <v>46.434449999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.6667829999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.4870140000000007E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99877870000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.2165559999999999E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.3639</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16.974049999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.120495</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3.210124</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.7877866</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.7023895</v>
+      </c>
+      <c r="O10" s="3">
+        <v>992.16700000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45119.492476851854</v>
+      </c>
+      <c r="B11" s="3">
+        <v>142.7302</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.3501139999999996</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.4867800000000003E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99877839999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4.2164050000000002E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.35585539999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>16.989409999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.547917</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5.250324</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.412093</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.72556160000000003</v>
+      </c>
+      <c r="O11" s="3">
+        <v>992.17679999999996</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45119.492488425924</v>
+      </c>
+      <c r="B12" s="3">
+        <v>147.98230000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.3858329999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.4867209999999995E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99877830000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.2163680000000003E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.35423100000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16.99024</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.584193</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5.3897079999999997</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.454701</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.72661609999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>992.17819999999995</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45119.4925</v>
+      </c>
+      <c r="B13" s="3">
+        <v>153.23439999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.4215520000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.486662E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99877830000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.2163300000000003E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.3526067</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16.991070000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.6204689999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.5290920000000003</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.4973080000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.72767059999999995</v>
+      </c>
+      <c r="O13" s="3">
+        <v>992.17960000000005</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45119.492511574077</v>
+      </c>
+      <c r="B14" s="3">
+        <v>68.313270000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.5412730000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.4839330000000001E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99877499999999997</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.2145560000000002E-5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.3850343</v>
+      </c>
+      <c r="J14" s="3">
+        <v>16.994949999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.551374</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6.6382789999999998</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.835345</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.75127330000000003</v>
+      </c>
+      <c r="O14" s="3">
+        <v>992.14509999999996</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45119.492523148147</v>
+      </c>
+      <c r="B15" s="3">
+        <v>65.929000000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.5624510000000003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.4837829999999999E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99877479999999996</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.2144590000000002E-5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.38658100000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>16.99549</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.6099589999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.7415710000000004</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.866879</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.75302210000000003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>992.14350000000002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45119.492534722223</v>
+      </c>
+      <c r="B16" s="3">
+        <v>63.544730000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.5836290000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.4836329999999998E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99877459999999996</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4.2143620000000002E-5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.38812780000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>16.996030000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.6685439999999998</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6.8448640000000003</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.8984129999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.75477090000000002</v>
+      </c>
+      <c r="O16" s="3">
+        <v>992.14179999999999</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45119.492546296293</v>
+      </c>
+      <c r="B17" s="3">
+        <v>28.361719999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.3036880000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.4834210000000003E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99877450000000001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4.2142240000000001E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.35257690000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17.012250000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.2345989999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8.1237390000000005</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.2865229999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.78608860000000003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>992.15819999999997</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4">
+        <v>45119.49255787037</v>
+      </c>
+      <c r="B18" s="3">
+        <v>24.65523</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.2911960000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.4833509999999997E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.9987743</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4.2141780000000002E-5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.35134009999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>17.013210000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.2852269999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8.216939</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2.314838</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.78828350000000003</v>
+      </c>
+      <c r="O18" s="3">
+        <v>992.15830000000005</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4">
+        <v>45119.492569444446</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20.94875</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.2787040000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.4832810000000005E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.9987743</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.2141319999999997E-5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.35010330000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17.01417</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.3358539999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>8.3101389999999995</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.343153</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.79047840000000003</v>
+      </c>
+      <c r="O19" s="3">
+        <v>992.1585</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4">
+        <v>45119.492581018516</v>
+      </c>
+      <c r="B20" s="3">
+        <v>20.04984</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.4726670000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.4827200000000001E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99877110000000002</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.212393E-5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.45302009999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17.018350000000002</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.3618420000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <v>10.675230000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.0666799999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.79846629999999996</v>
+      </c>
+      <c r="O20" s="3">
+        <v>992.15899999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.889775030000003</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.117258179999993</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>45119.492372685185</v>
+        <v>45119.492592592593</v>
       </c>
       <c r="B21" s="3">
-        <v>36.203519999999997</v>
+        <v>19.247309999999999</v>
       </c>
       <c r="C21" s="3">
-        <v>5.76227</v>
+        <v>6.4768119999999998</v>
       </c>
       <c r="D21" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>6.4908140000000003E-2</v>
+        <v>6.482686E-2</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99878319999999998</v>
+        <v>0.99877099999999996</v>
       </c>
       <c r="H21" s="5">
-        <v>4.2190229999999997E-5</v>
+        <v>4.2122980000000002E-5</v>
       </c>
       <c r="I21" s="3">
-        <v>0.3089575</v>
+        <v>0.457677</v>
       </c>
       <c r="J21" s="3">
-        <v>16.951039999999999</v>
+        <v>17.018930000000001</v>
       </c>
       <c r="K21" s="3">
-        <v>0.34958149999999999</v>
+        <v>4.4287869999999998</v>
       </c>
       <c r="L21" s="3">
-        <v>1.4187289999999999</v>
+        <v>10.82931</v>
       </c>
       <c r="M21" s="3">
-        <v>0.2457802</v>
+        <v>3.113747</v>
       </c>
       <c r="N21" s="3">
-        <v>0.70983339999999995</v>
+        <v>0.79958879999999999</v>
       </c>
       <c r="O21" s="3">
-        <v>992.16989999999998</v>
+        <v>992.15940000000001</v>
       </c>
       <c r="P21" s="3">
         <v>46.889775030000003</v>
@@ -1231,49 +2135,49 @@
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>45119.492384259262</v>
+        <v>45119.492604166669</v>
       </c>
       <c r="B22" s="3">
-        <v>35.689610000000002</v>
+        <v>18.444790000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>5.7609250000000003</v>
+        <v>6.4809570000000001</v>
       </c>
       <c r="D22" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>6.4906920000000007E-2</v>
+        <v>6.4826519999999999E-2</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99878310000000003</v>
+        <v>0.99877079999999996</v>
       </c>
       <c r="H22" s="5">
-        <v>4.2189450000000003E-5</v>
+        <v>4.2122030000000003E-5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.31198300000000001</v>
+        <v>0.46233390000000002</v>
       </c>
       <c r="J22" s="3">
-        <v>16.951219999999999</v>
+        <v>17.01952</v>
       </c>
       <c r="K22" s="3">
-        <v>0.34924959999999999</v>
+        <v>4.4957320000000003</v>
       </c>
       <c r="L22" s="3">
-        <v>1.417305</v>
+        <v>10.98339</v>
       </c>
       <c r="M22" s="3">
-        <v>0.24554690000000001</v>
+        <v>3.1608139999999998</v>
       </c>
       <c r="N22" s="3">
-        <v>0.71023420000000004</v>
+        <v>0.80071130000000001</v>
       </c>
       <c r="O22" s="3">
-        <v>992.16970000000003</v>
+        <v>992.15980000000002</v>
       </c>
       <c r="P22" s="3">
         <v>46.889775030000003</v>
@@ -1285,49 +2189,49 @@
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45119.492395833331</v>
+        <v>45119.492615740739</v>
       </c>
       <c r="B23" s="3">
-        <v>35.175690000000003</v>
+        <v>19.234010000000001</v>
       </c>
       <c r="C23" s="3">
-        <v>5.7595799999999997</v>
+        <v>6.3423590000000001</v>
       </c>
       <c r="D23" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>6.490572E-2</v>
+        <v>6.4808370000000004E-2</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99878290000000003</v>
+        <v>0.99877099999999996</v>
       </c>
       <c r="H23" s="5">
-        <v>4.2188679999999997E-5</v>
+        <v>4.2123599999999998E-5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.31500860000000003</v>
+        <v>0.4704179</v>
       </c>
       <c r="J23" s="3">
-        <v>16.9514</v>
+        <v>17.033950000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.3489177</v>
+        <v>5.1657109999999999</v>
       </c>
       <c r="L23" s="3">
-        <v>1.4158809999999999</v>
+        <v>12.535959999999999</v>
       </c>
       <c r="M23" s="3">
-        <v>0.24531359999999999</v>
+        <v>3.631856</v>
       </c>
       <c r="N23" s="3">
-        <v>0.71063509999999996</v>
+        <v>0.80831819999999999</v>
       </c>
       <c r="O23" s="3">
-        <v>992.16949999999997</v>
+        <v>992.14269999999999</v>
       </c>
       <c r="P23" s="3">
         <v>46.889775030000003</v>
@@ -1339,49 +2243,49 @@
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45119.492407407408</v>
+        <v>45119.492627314816</v>
       </c>
       <c r="B24" s="3">
-        <v>37.798839999999998</v>
+        <v>19.242149999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>5.6951790000000004</v>
+        <v>6.3390579999999996</v>
       </c>
       <c r="D24" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>6.4895960000000003E-2</v>
+        <v>6.480727E-2</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99878169999999999</v>
+        <v>0.99877099999999996</v>
       </c>
       <c r="H24" s="5">
-        <v>4.218194E-5</v>
+        <v>4.2123309999999998E-5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.41119460000000002</v>
+        <v>0.47304990000000002</v>
       </c>
       <c r="J24" s="3">
-        <v>16.97043</v>
+        <v>17.03481</v>
       </c>
       <c r="K24" s="3">
-        <v>0.41531459999999998</v>
+        <v>5.2237220000000004</v>
       </c>
       <c r="L24" s="3">
-        <v>1.581269</v>
+        <v>12.669969999999999</v>
       </c>
       <c r="M24" s="3">
-        <v>0.29199520000000001</v>
+        <v>3.6726420000000002</v>
       </c>
       <c r="N24" s="3">
-        <v>0.71073839999999999</v>
+        <v>0.80890240000000002</v>
       </c>
       <c r="O24" s="3">
-        <v>992.12630000000001</v>
+        <v>992.14179999999999</v>
       </c>
       <c r="P24" s="3">
         <v>46.889775030000003</v>
@@ -1393,49 +2297,49 @@
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45119.492418981485</v>
+        <v>45119.492638888885</v>
       </c>
       <c r="B25" s="3">
-        <v>37.851039999999998</v>
+        <v>19.25029</v>
       </c>
       <c r="C25" s="3">
-        <v>5.6914449999999999</v>
+        <v>6.3357590000000004</v>
       </c>
       <c r="D25" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>6.4895040000000001E-2</v>
+        <v>6.4806180000000005E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99878160000000005</v>
+        <v>0.99877090000000002</v>
       </c>
       <c r="H25" s="5">
-        <v>4.2181329999999998E-5</v>
+        <v>4.2123019999999998E-5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.41652109999999998</v>
+        <v>0.47568189999999999</v>
       </c>
       <c r="J25" s="3">
-        <v>16.971430000000002</v>
+        <v>17.035679999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>0.41881940000000001</v>
+        <v>5.281733</v>
       </c>
       <c r="L25" s="3">
-        <v>1.5897030000000001</v>
+        <v>12.803979999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>0.29445939999999998</v>
+        <v>3.713428</v>
       </c>
       <c r="N25" s="3">
-        <v>0.7109103</v>
+        <v>0.8094867</v>
       </c>
       <c r="O25" s="3">
-        <v>992.1241</v>
+        <v>992.14089999999999</v>
       </c>
       <c r="P25" s="3">
         <v>46.889775030000003</v>
@@ -1447,49 +2351,49 @@
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45119.492430555554</v>
+        <v>45119.492650462962</v>
       </c>
       <c r="B26" s="3">
-        <v>37.903239999999997</v>
+        <v>17.127310000000001</v>
       </c>
       <c r="C26" s="3">
-        <v>5.68771</v>
+        <v>6.3871229999999999</v>
       </c>
       <c r="D26" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>6.489412E-2</v>
+        <v>6.4791399999999999E-2</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99878149999999999</v>
+        <v>0.99876799999999999</v>
       </c>
       <c r="H26" s="5">
-        <v>4.2180720000000002E-5</v>
+        <v>4.2107290000000002E-5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.42184759999999999</v>
+        <v>0.4940117</v>
       </c>
       <c r="J26" s="3">
-        <v>16.972429999999999</v>
+        <v>17.04374</v>
       </c>
       <c r="K26" s="3">
-        <v>0.42232429999999999</v>
+        <v>5.8797819999999996</v>
       </c>
       <c r="L26" s="3">
-        <v>1.5981380000000001</v>
+        <v>14.16757</v>
       </c>
       <c r="M26" s="3">
-        <v>0.29692350000000001</v>
+        <v>4.1338980000000003</v>
       </c>
       <c r="N26" s="3">
-        <v>0.71108199999999999</v>
+        <v>0.809674</v>
       </c>
       <c r="O26" s="3">
-        <v>992.12180000000001</v>
+        <v>992.15740000000005</v>
       </c>
       <c r="P26" s="3">
         <v>46.889775030000003</v>
@@ -1501,49 +2405,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45119.492442129631</v>
+        <v>45119.492662037039</v>
       </c>
       <c r="B27" s="3">
-        <v>45.531640000000003</v>
+        <v>17.023710000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>5.671297</v>
+        <v>6.3868119999999999</v>
       </c>
       <c r="D27" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>6.4872819999999998E-2</v>
+        <v>6.4790200000000006E-2</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99877899999999997</v>
+        <v>0.99876790000000004</v>
       </c>
       <c r="H27" s="5">
-        <v>4.2167279999999997E-5</v>
+        <v>4.2106479999999999E-5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.36560480000000001</v>
+        <v>0.49513570000000001</v>
       </c>
       <c r="J27" s="3">
-        <v>16.97315</v>
+        <v>17.04449</v>
       </c>
       <c r="K27" s="3">
-        <v>1.0514939999999999</v>
+        <v>5.9264450000000002</v>
       </c>
       <c r="L27" s="3">
-        <v>3.0503459999999998</v>
+        <v>14.2745</v>
       </c>
       <c r="M27" s="3">
-        <v>0.73927410000000005</v>
+        <v>4.1667059999999996</v>
       </c>
       <c r="N27" s="3">
-        <v>0.70320879999999997</v>
+        <v>0.80984970000000001</v>
       </c>
       <c r="O27" s="3">
-        <v>992.1644</v>
+        <v>992.15800000000002</v>
       </c>
       <c r="P27" s="3">
         <v>46.889775030000003</v>
@@ -1555,49 +2459,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45119.4924537037</v>
+        <v>45119.492673611108</v>
       </c>
       <c r="B28" s="3">
-        <v>45.983040000000003</v>
+        <v>16.920110000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>5.6690399999999999</v>
+        <v>6.3865020000000001</v>
       </c>
       <c r="D28" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>6.4871479999999995E-2</v>
+        <v>6.4789009999999994E-2</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99877890000000003</v>
+        <v>0.99876770000000004</v>
       </c>
       <c r="H28" s="5">
-        <v>4.2166419999999998E-5</v>
+        <v>4.2105660000000003E-5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.36475239999999998</v>
+        <v>0.49625960000000002</v>
       </c>
       <c r="J28" s="3">
-        <v>16.973600000000001</v>
+        <v>17.04524</v>
       </c>
       <c r="K28" s="3">
-        <v>1.085995</v>
+        <v>5.973109</v>
       </c>
       <c r="L28" s="3">
-        <v>3.1302349999999999</v>
+        <v>14.38143</v>
       </c>
       <c r="M28" s="3">
-        <v>0.76353040000000005</v>
+        <v>4.1995139999999997</v>
       </c>
       <c r="N28" s="3">
-        <v>0.70279910000000001</v>
+        <v>0.81002549999999995</v>
       </c>
       <c r="O28" s="3">
-        <v>992.16570000000002</v>
+        <v>992.1585</v>
       </c>
       <c r="P28" s="3">
         <v>46.889775030000003</v>
@@ -1609,49 +2513,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45119.492465277777</v>
+        <v>45119.492685185185</v>
       </c>
       <c r="B29" s="3">
-        <v>46.434449999999998</v>
+        <v>15.813549999999999</v>
       </c>
       <c r="C29" s="3">
-        <v>5.6667829999999997</v>
+        <v>6.5168990000000004</v>
       </c>
       <c r="D29" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>6.4870140000000007E-2</v>
+        <v>6.4779829999999997E-2</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99877870000000002</v>
+        <v>0.99876779999999998</v>
       </c>
       <c r="H29" s="5">
-        <v>4.2165559999999999E-5</v>
+        <v>4.2106020000000001E-5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.3639</v>
+        <v>0.46754990000000002</v>
       </c>
       <c r="J29" s="3">
-        <v>16.974049999999998</v>
+        <v>17.05227</v>
       </c>
       <c r="K29" s="3">
-        <v>1.120495</v>
+        <v>6.5297200000000002</v>
       </c>
       <c r="L29" s="3">
-        <v>3.210124</v>
+        <v>15.66723</v>
       </c>
       <c r="M29" s="3">
-        <v>0.7877866</v>
+        <v>4.5908499999999997</v>
       </c>
       <c r="N29" s="3">
-        <v>0.7023895</v>
+        <v>0.81</v>
       </c>
       <c r="O29" s="3">
-        <v>992.16700000000003</v>
+        <v>992.16740000000004</v>
       </c>
       <c r="P29" s="3">
         <v>46.889775030000003</v>
@@ -1663,49 +2567,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45119.492476851854</v>
+        <v>45119.492696759262</v>
       </c>
       <c r="B30" s="3">
-        <v>142.7302</v>
+        <v>15.70593</v>
       </c>
       <c r="C30" s="3">
-        <v>6.3501139999999996</v>
+        <v>6.5252400000000002</v>
       </c>
       <c r="D30" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>6.4867800000000003E-2</v>
+        <v>6.4779009999999998E-2</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99877839999999996</v>
+        <v>0.99876770000000004</v>
       </c>
       <c r="H30" s="5">
-        <v>4.2164050000000002E-5</v>
+        <v>4.2105689999999998E-5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.35585539999999999</v>
+        <v>0.4663853</v>
       </c>
       <c r="J30" s="3">
-        <v>16.989409999999999</v>
+        <v>17.05283</v>
       </c>
       <c r="K30" s="3">
-        <v>1.547917</v>
+        <v>6.5731529999999996</v>
       </c>
       <c r="L30" s="3">
-        <v>5.250324</v>
+        <v>15.767160000000001</v>
       </c>
       <c r="M30" s="3">
-        <v>1.412093</v>
+        <v>4.6213870000000004</v>
       </c>
       <c r="N30" s="3">
-        <v>0.72556160000000003</v>
+        <v>0.81</v>
       </c>
       <c r="O30" s="3">
-        <v>992.17679999999996</v>
+        <v>992.16830000000004</v>
       </c>
       <c r="P30" s="3">
         <v>46.889775030000003</v>
@@ -1717,49 +2621,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45119.492488425924</v>
+        <v>45119.492708333331</v>
       </c>
       <c r="B31" s="3">
-        <v>147.98230000000001</v>
+        <v>15.59831</v>
       </c>
       <c r="C31" s="3">
-        <v>6.3858329999999999</v>
+        <v>6.533582</v>
       </c>
       <c r="D31" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>6.4867209999999995E-2</v>
+        <v>6.4778180000000005E-2</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99877830000000001</v>
+        <v>0.99876770000000004</v>
       </c>
       <c r="H31" s="5">
-        <v>4.2163680000000003E-5</v>
+        <v>4.2105370000000003E-5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.35423100000000002</v>
+        <v>0.46522079999999999</v>
       </c>
       <c r="J31" s="3">
-        <v>16.99024</v>
+        <v>17.05339</v>
       </c>
       <c r="K31" s="3">
-        <v>1.584193</v>
+        <v>6.616587</v>
       </c>
       <c r="L31" s="3">
-        <v>5.3897079999999997</v>
+        <v>15.867100000000001</v>
       </c>
       <c r="M31" s="3">
-        <v>1.454701</v>
+        <v>4.6519240000000002</v>
       </c>
       <c r="N31" s="3">
-        <v>0.72661609999999999</v>
+        <v>0.81</v>
       </c>
       <c r="O31" s="3">
-        <v>992.17819999999995</v>
+        <v>992.16920000000005</v>
       </c>
       <c r="P31" s="3">
         <v>46.889775030000003</v>
@@ -1771,49 +2675,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45119.4925</v>
+        <v>45119.492719907408</v>
       </c>
       <c r="B32" s="3">
-        <v>153.23439999999999</v>
+        <v>14.71823</v>
       </c>
       <c r="C32" s="3">
-        <v>6.4215520000000001</v>
+        <v>6.4552969999999998</v>
       </c>
       <c r="D32" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>6.486662E-2</v>
+        <v>6.4762440000000004E-2</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99877830000000001</v>
+        <v>0.99876580000000004</v>
       </c>
       <c r="H32" s="5">
-        <v>4.2163300000000003E-5</v>
+        <v>4.2095300000000003E-5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.3526067</v>
+        <v>0.49044650000000001</v>
       </c>
       <c r="J32" s="3">
-        <v>16.991070000000001</v>
+        <v>17.06343</v>
       </c>
       <c r="K32" s="3">
-        <v>1.6204689999999999</v>
+        <v>7.2285599999999999</v>
       </c>
       <c r="L32" s="3">
-        <v>5.5290920000000003</v>
+        <v>17.287120000000002</v>
       </c>
       <c r="M32" s="3">
-        <v>1.4973080000000001</v>
+        <v>5.5514419999999998</v>
       </c>
       <c r="N32" s="3">
-        <v>0.72767059999999995</v>
+        <v>0.78728969999999998</v>
       </c>
       <c r="O32" s="3">
-        <v>992.17960000000005</v>
+        <v>992.15250000000003</v>
       </c>
       <c r="P32" s="3">
         <v>46.889775030000003</v>
@@ -1825,49 +2729,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45119.492511574077</v>
+        <v>45119.492731481485</v>
       </c>
       <c r="B33" s="3">
-        <v>68.313270000000003</v>
+        <v>14.64709</v>
       </c>
       <c r="C33" s="3">
-        <v>6.5412730000000003</v>
+        <v>6.4540160000000002</v>
       </c>
       <c r="D33" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>6.4839330000000001E-2</v>
+        <v>6.4761399999999997E-2</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99877499999999997</v>
+        <v>0.99876569999999998</v>
       </c>
       <c r="H33" s="5">
-        <v>4.2145560000000002E-5</v>
+        <v>4.2094780000000001E-5</v>
       </c>
       <c r="I33" s="3">
-        <v>0.3850343</v>
+        <v>0.4911451</v>
       </c>
       <c r="J33" s="3">
-        <v>16.994949999999999</v>
+        <v>17.064119999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>2.551374</v>
+        <v>7.2735700000000003</v>
       </c>
       <c r="L33" s="3">
-        <v>6.6382789999999998</v>
+        <v>17.39143</v>
       </c>
       <c r="M33" s="3">
-        <v>1.835345</v>
+        <v>5.6081190000000003</v>
       </c>
       <c r="N33" s="3">
-        <v>0.75127330000000003</v>
+        <v>0.78607819999999995</v>
       </c>
       <c r="O33" s="3">
-        <v>992.14509999999996</v>
+        <v>992.15179999999998</v>
       </c>
       <c r="P33" s="3">
         <v>46.889775030000003</v>
@@ -1879,49 +2783,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45119.492523148147</v>
+        <v>45119.492743055554</v>
       </c>
       <c r="B34" s="3">
-        <v>65.929000000000002</v>
+        <v>14.575939999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>6.5624510000000003</v>
+        <v>6.4527340000000004</v>
       </c>
       <c r="D34" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>6.4837829999999999E-2</v>
+        <v>6.4760349999999994E-2</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99877479999999996</v>
+        <v>0.99876560000000003</v>
       </c>
       <c r="H34" s="5">
-        <v>4.2144590000000002E-5</v>
+        <v>4.2094249999999998E-5</v>
       </c>
       <c r="I34" s="3">
-        <v>0.38658100000000001</v>
+        <v>0.49184369999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>16.99549</v>
+        <v>17.064810000000001</v>
       </c>
       <c r="K34" s="3">
-        <v>2.6099589999999999</v>
+        <v>7.3185799999999999</v>
       </c>
       <c r="L34" s="3">
-        <v>6.7415710000000004</v>
+        <v>17.495750000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>1.866879</v>
+        <v>5.6647959999999999</v>
       </c>
       <c r="N34" s="3">
-        <v>0.75302210000000003</v>
+        <v>0.78486679999999998</v>
       </c>
       <c r="O34" s="3">
-        <v>992.14350000000002</v>
+        <v>992.15110000000004</v>
       </c>
       <c r="P34" s="3">
         <v>46.889775030000003</v>
@@ -1933,49 +2837,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45119.492534722223</v>
+        <v>45119.492754629631</v>
       </c>
       <c r="B35" s="3">
-        <v>63.544730000000001</v>
+        <v>14.26693</v>
       </c>
       <c r="C35" s="3">
-        <v>6.5836290000000002</v>
+        <v>6.4235280000000001</v>
       </c>
       <c r="D35" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>6.4836329999999998E-2</v>
+        <v>6.4754909999999999E-2</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99877459999999996</v>
+        <v>0.99876489999999996</v>
       </c>
       <c r="H35" s="5">
-        <v>4.2143620000000002E-5</v>
+        <v>4.2090689999999999E-5</v>
       </c>
       <c r="I35" s="3">
-        <v>0.38812780000000002</v>
+        <v>0.39036359999999998</v>
       </c>
       <c r="J35" s="3">
-        <v>16.996030000000001</v>
+        <v>17.06193</v>
       </c>
       <c r="K35" s="3">
-        <v>2.6685439999999998</v>
+        <v>8.3395519999999994</v>
       </c>
       <c r="L35" s="3">
-        <v>6.8448640000000003</v>
+        <v>19.844909999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>1.8984129999999999</v>
+        <v>5.925357</v>
       </c>
       <c r="N35" s="3">
-        <v>0.75477090000000002</v>
+        <v>0.79169909999999999</v>
       </c>
       <c r="O35" s="3">
-        <v>992.14179999999999</v>
+        <v>992.11649999999997</v>
       </c>
       <c r="P35" s="3">
         <v>46.889775030000003</v>
@@ -1987,49 +2891,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45119.492546296293</v>
+        <v>45119.492766203701</v>
       </c>
       <c r="B36" s="3">
-        <v>28.361719999999998</v>
+        <v>14.23141</v>
       </c>
       <c r="C36" s="3">
-        <v>6.3036880000000002</v>
+        <v>6.4202500000000002</v>
       </c>
       <c r="D36" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>6.4834210000000003E-2</v>
+        <v>6.4754279999999997E-2</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99877450000000001</v>
+        <v>0.99876489999999996</v>
       </c>
       <c r="H36" s="5">
-        <v>4.2142240000000001E-5</v>
+        <v>4.2090279999999998E-5</v>
       </c>
       <c r="I36" s="3">
-        <v>0.35257690000000003</v>
+        <v>0.38526690000000002</v>
       </c>
       <c r="J36" s="3">
-        <v>17.012250000000002</v>
+        <v>17.061979999999998</v>
       </c>
       <c r="K36" s="3">
-        <v>3.2345989999999998</v>
+        <v>8.408925</v>
       </c>
       <c r="L36" s="3">
-        <v>8.1237390000000005</v>
+        <v>20.004770000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>2.2865229999999999</v>
+        <v>5.9585460000000001</v>
       </c>
       <c r="N36" s="3">
-        <v>0.78608860000000003</v>
+        <v>0.79160430000000004</v>
       </c>
       <c r="O36" s="3">
-        <v>992.15819999999997</v>
+        <v>992.11419999999998</v>
       </c>
       <c r="P36" s="3">
         <v>46.889775030000003</v>
@@ -2041,49 +2945,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45119.49255787037</v>
+        <v>45119.492777777778</v>
       </c>
       <c r="B37" s="3">
-        <v>24.65523</v>
+        <v>14.19589</v>
       </c>
       <c r="C37" s="3">
-        <v>6.2911960000000002</v>
+        <v>6.4169720000000003</v>
       </c>
       <c r="D37" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>6.4833509999999997E-2</v>
+        <v>6.4753640000000001E-2</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.9987743</v>
+        <v>0.99876480000000001</v>
       </c>
       <c r="H37" s="5">
-        <v>4.2141780000000002E-5</v>
+        <v>4.2089870000000003E-5</v>
       </c>
       <c r="I37" s="3">
-        <v>0.35134009999999999</v>
+        <v>0.38017010000000001</v>
       </c>
       <c r="J37" s="3">
-        <v>17.013210000000001</v>
+        <v>17.06203</v>
       </c>
       <c r="K37" s="3">
-        <v>3.2852269999999999</v>
+        <v>8.4782980000000006</v>
       </c>
       <c r="L37" s="3">
-        <v>8.216939</v>
+        <v>20.164639999999999</v>
       </c>
       <c r="M37" s="3">
-        <v>2.314838</v>
+        <v>5.9917360000000004</v>
       </c>
       <c r="N37" s="3">
-        <v>0.78828350000000003</v>
+        <v>0.79150960000000004</v>
       </c>
       <c r="O37" s="3">
-        <v>992.15830000000005</v>
+        <v>992.11189999999999</v>
       </c>
       <c r="P37" s="3">
         <v>46.889775030000003</v>
@@ -2095,49 +2999,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45119.492569444446</v>
+        <v>45119.492789351854</v>
       </c>
       <c r="B38" s="3">
-        <v>20.94875</v>
+        <v>14.05639</v>
       </c>
       <c r="C38" s="3">
-        <v>6.2787040000000003</v>
+        <v>6.651764</v>
       </c>
       <c r="D38" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E38" s="3">
-        <v>6.4832810000000005E-2</v>
+        <v>6.4751790000000004E-2</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.9987743</v>
+        <v>0.9987646</v>
       </c>
       <c r="H38" s="5">
-        <v>4.2141319999999997E-5</v>
+        <v>4.208866E-5</v>
       </c>
       <c r="I38" s="3">
-        <v>0.35010330000000001</v>
+        <v>0.4113501</v>
       </c>
       <c r="J38" s="3">
-        <v>17.01417</v>
+        <v>17.068539999999999</v>
       </c>
       <c r="K38" s="3">
-        <v>3.3358539999999999</v>
+        <v>9.1430959999999999</v>
       </c>
       <c r="L38" s="3">
-        <v>8.3101389999999995</v>
+        <v>21.707039999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>2.343153</v>
+        <v>6.4480880000000003</v>
       </c>
       <c r="N38" s="3">
-        <v>0.79047840000000003</v>
+        <v>0.79932270000000005</v>
       </c>
       <c r="O38" s="3">
-        <v>992.1585</v>
+        <v>992.13660000000004</v>
       </c>
       <c r="P38" s="3">
         <v>46.889775030000003</v>
@@ -2149,49 +3053,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45119.492581018516</v>
+        <v>45119.492800925924</v>
       </c>
       <c r="B39" s="3">
-        <v>20.04984</v>
+        <v>14.04241</v>
       </c>
       <c r="C39" s="3">
-        <v>6.4726670000000004</v>
+        <v>6.6641300000000001</v>
       </c>
       <c r="D39" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E39" s="3">
-        <v>6.4827200000000001E-2</v>
+        <v>6.4751569999999994E-2</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99877110000000002</v>
+        <v>0.9987646</v>
       </c>
       <c r="H39" s="5">
-        <v>4.212393E-5</v>
+        <v>4.2088529999999997E-5</v>
       </c>
       <c r="I39" s="3">
-        <v>0.45302009999999998</v>
+        <v>0.41076489999999999</v>
       </c>
       <c r="J39" s="3">
-        <v>17.018350000000002</v>
+        <v>17.068819999999999</v>
       </c>
       <c r="K39" s="3">
-        <v>4.3618420000000002</v>
+        <v>9.2022279999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>10.675230000000001</v>
+        <v>21.843789999999998</v>
       </c>
       <c r="M39" s="3">
-        <v>3.0666799999999999</v>
+        <v>6.4783850000000003</v>
       </c>
       <c r="N39" s="3">
-        <v>0.79846629999999996</v>
+        <v>0.79992589999999997</v>
       </c>
       <c r="O39" s="3">
-        <v>992.15899999999999</v>
+        <v>992.13720000000001</v>
       </c>
       <c r="P39" s="3">
         <v>46.889775030000003</v>
@@ -2203,49 +3107,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45119.492592592593</v>
+        <v>45119.492812500001</v>
       </c>
       <c r="B40" s="3">
-        <v>19.247309999999999</v>
+        <v>14.028420000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>6.4768119999999998</v>
+        <v>6.6764970000000003</v>
       </c>
       <c r="D40" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>6.482686E-2</v>
+        <v>6.4751359999999994E-2</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99877099999999996</v>
+        <v>0.99876450000000006</v>
       </c>
       <c r="H40" s="5">
-        <v>4.2122980000000002E-5</v>
+        <v>4.2088390000000001E-5</v>
       </c>
       <c r="I40" s="3">
-        <v>0.457677</v>
+        <v>0.41017979999999998</v>
       </c>
       <c r="J40" s="3">
-        <v>17.018930000000001</v>
+        <v>17.069109999999998</v>
       </c>
       <c r="K40" s="3">
-        <v>4.4287869999999998</v>
+        <v>9.2613599999999998</v>
       </c>
       <c r="L40" s="3">
-        <v>10.82931</v>
+        <v>21.980540000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>3.113747</v>
+        <v>6.5086830000000004</v>
       </c>
       <c r="N40" s="3">
-        <v>0.79958879999999999</v>
+        <v>0.80052920000000005</v>
       </c>
       <c r="O40" s="3">
-        <v>992.15940000000001</v>
+        <v>992.13779999999997</v>
       </c>
       <c r="P40" s="3">
         <v>46.889775030000003</v>
@@ -2257,49 +3161,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45119.492604166669</v>
+        <v>45119.492824074077</v>
       </c>
       <c r="B41" s="3">
-        <v>18.444790000000001</v>
+        <v>13.907629999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>6.4809570000000001</v>
+        <v>6.4806499999999998</v>
       </c>
       <c r="D41" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>6.4826519999999999E-2</v>
+        <v>6.47485E-2</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99877079999999996</v>
+        <v>0.99876339999999997</v>
       </c>
       <c r="H41" s="5">
-        <v>4.2122030000000003E-5</v>
+        <v>4.2082570000000001E-5</v>
       </c>
       <c r="I41" s="3">
-        <v>0.46233390000000002</v>
+        <v>0.3525295</v>
       </c>
       <c r="J41" s="3">
-        <v>17.01952</v>
+        <v>17.07244</v>
       </c>
       <c r="K41" s="3">
-        <v>4.4957320000000003</v>
+        <v>10.37255</v>
       </c>
       <c r="L41" s="3">
-        <v>10.98339</v>
+        <v>24.547350000000002</v>
       </c>
       <c r="M41" s="3">
-        <v>3.1608139999999998</v>
+        <v>7.2926260000000003</v>
       </c>
       <c r="N41" s="3">
-        <v>0.80071130000000001</v>
+        <v>0.80067339999999998</v>
       </c>
       <c r="O41" s="3">
-        <v>992.15980000000002</v>
+        <v>992.1386</v>
       </c>
       <c r="P41" s="3">
         <v>46.889775030000003</v>
@@ -2311,49 +3215,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45119.492615740739</v>
+        <v>45119.492835648147</v>
       </c>
       <c r="B42" s="3">
-        <v>19.234010000000001</v>
+        <v>13.897970000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>6.3423590000000001</v>
+        <v>6.4751469999999998</v>
       </c>
       <c r="D42" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E42" s="3">
-        <v>6.4808370000000004E-2</v>
+        <v>6.474829E-2</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99877099999999996</v>
+        <v>0.99876339999999997</v>
       </c>
       <c r="H42" s="5">
-        <v>4.2123599999999998E-5</v>
+        <v>4.2082220000000003E-5</v>
       </c>
       <c r="I42" s="3">
-        <v>0.4704179</v>
+        <v>0.35008450000000002</v>
       </c>
       <c r="J42" s="3">
-        <v>17.033950000000001</v>
+        <v>17.072769999999998</v>
       </c>
       <c r="K42" s="3">
-        <v>5.1657109999999999</v>
+        <v>10.448079999999999</v>
       </c>
       <c r="L42" s="3">
-        <v>12.535959999999999</v>
+        <v>24.721979999999999</v>
       </c>
       <c r="M42" s="3">
-        <v>3.631856</v>
+        <v>7.3457290000000004</v>
       </c>
       <c r="N42" s="3">
-        <v>0.80831819999999999</v>
+        <v>0.80085399999999995</v>
       </c>
       <c r="O42" s="3">
-        <v>992.14269999999999</v>
+        <v>992.13919999999996</v>
       </c>
       <c r="P42" s="3">
         <v>46.889775030000003</v>
@@ -2365,49 +3269,49 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45119.492627314816</v>
+        <v>45119.492847222224</v>
       </c>
       <c r="B43" s="3">
-        <v>19.242149999999999</v>
+        <v>13.888310000000001</v>
       </c>
       <c r="C43" s="3">
-        <v>6.3390579999999996</v>
+        <v>6.4696439999999997</v>
       </c>
       <c r="D43" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E43" s="3">
-        <v>6.480727E-2</v>
+        <v>6.4748100000000003E-2</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99877099999999996</v>
+        <v>0.99876330000000002</v>
       </c>
       <c r="H43" s="5">
-        <v>4.2123309999999998E-5</v>
+        <v>4.208188E-5</v>
       </c>
       <c r="I43" s="3">
-        <v>0.47304990000000002</v>
+        <v>0.34763939999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>17.03481</v>
+        <v>17.073090000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>5.2237220000000004</v>
+        <v>10.52361</v>
       </c>
       <c r="L43" s="3">
-        <v>12.669969999999999</v>
+        <v>24.896599999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>3.6726420000000002</v>
+        <v>7.3988329999999998</v>
       </c>
       <c r="N43" s="3">
-        <v>0.80890240000000002</v>
+        <v>0.80103460000000004</v>
       </c>
       <c r="O43" s="3">
-        <v>992.14179999999999</v>
+        <v>992.13980000000004</v>
       </c>
       <c r="P43" s="3">
         <v>46.889775030000003</v>
@@ -2419,49 +3323,49 @@
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45119.492638888885</v>
+        <v>45119.492858796293</v>
       </c>
       <c r="B44" s="3">
-        <v>19.25029</v>
+        <v>13.865550000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>6.3357590000000004</v>
+        <v>6.4290589999999996</v>
       </c>
       <c r="D44" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>6.4806180000000005E-2</v>
+        <v>6.4752119999999996E-2</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99877090000000002</v>
+        <v>0.99876450000000006</v>
       </c>
       <c r="H44" s="5">
-        <v>4.2123019999999998E-5</v>
+        <v>4.2088359999999999E-5</v>
       </c>
       <c r="I44" s="3">
-        <v>0.47568189999999999</v>
+        <v>0.33055859999999998</v>
       </c>
       <c r="J44" s="3">
-        <v>17.035679999999999</v>
+        <v>17.077349999999999</v>
       </c>
       <c r="K44" s="3">
-        <v>5.281733</v>
+        <v>11.31926</v>
       </c>
       <c r="L44" s="3">
-        <v>12.803979999999999</v>
+        <v>26.726569999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>3.713428</v>
+        <v>7.9582319999999998</v>
       </c>
       <c r="N44" s="3">
-        <v>0.8094867</v>
+        <v>0.80867650000000002</v>
       </c>
       <c r="O44" s="3">
-        <v>992.14089999999999</v>
+        <v>992.13109999999995</v>
       </c>
       <c r="P44" s="3">
         <v>46.889775030000003</v>
@@ -2473,49 +3377,49 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45119.492650462962</v>
+        <v>45119.49287037037</v>
       </c>
       <c r="B45" s="3">
-        <v>17.127310000000001</v>
+        <v>13.86164</v>
       </c>
       <c r="C45" s="3">
-        <v>6.3871229999999999</v>
+        <v>6.4224309999999996</v>
       </c>
       <c r="D45" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>6.4791399999999999E-2</v>
+        <v>6.4752270000000001E-2</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99876799999999999</v>
+        <v>0.9987646</v>
       </c>
       <c r="H45" s="5">
-        <v>4.2107290000000002E-5</v>
+        <v>4.2088590000000002E-5</v>
       </c>
       <c r="I45" s="3">
-        <v>0.4940117</v>
+        <v>0.32832050000000002</v>
       </c>
       <c r="J45" s="3">
-        <v>17.04374</v>
+        <v>17.077660000000002</v>
       </c>
       <c r="K45" s="3">
-        <v>5.8797819999999996</v>
+        <v>11.38785</v>
       </c>
       <c r="L45" s="3">
-        <v>14.16757</v>
+        <v>26.88456</v>
       </c>
       <c r="M45" s="3">
-        <v>4.1338980000000003</v>
+        <v>8.0064539999999997</v>
       </c>
       <c r="N45" s="3">
-        <v>0.809674</v>
+        <v>0.80910349999999998</v>
       </c>
       <c r="O45" s="3">
-        <v>992.15740000000005</v>
+        <v>992.13059999999996</v>
       </c>
       <c r="P45" s="3">
         <v>46.889775030000003</v>
@@ -2527,775 +3431,775 @@
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45119.492662037039</v>
+        <v>45119.492881944447</v>
       </c>
       <c r="B46" s="3">
-        <v>17.023710000000001</v>
+        <v>13.85773</v>
       </c>
       <c r="C46" s="3">
-        <v>6.3868119999999999</v>
+        <v>6.4158030000000004</v>
       </c>
       <c r="D46" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>6.4790200000000006E-2</v>
+        <v>6.4752439999999994E-2</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99876790000000004</v>
+        <v>0.9987646</v>
       </c>
       <c r="H46" s="5">
-        <v>4.2106479999999999E-5</v>
+        <v>4.2088819999999997E-5</v>
       </c>
       <c r="I46" s="3">
-        <v>0.49513570000000001</v>
+        <v>0.32608239999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>17.04449</v>
+        <v>17.077960000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>5.9264450000000002</v>
+        <v>11.456440000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>14.2745</v>
+        <v>27.042549999999999</v>
       </c>
       <c r="M46" s="3">
-        <v>4.1667059999999996</v>
+        <v>8.0546769999999999</v>
       </c>
       <c r="N46" s="3">
-        <v>0.80984970000000001</v>
+        <v>0.80953039999999998</v>
       </c>
       <c r="O46" s="3">
-        <v>992.15800000000002</v>
+        <v>992.13019999999995</v>
       </c>
       <c r="P46" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889770040000002</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117269109999995</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45119.492673611108</v>
+        <v>45119.492893518516</v>
       </c>
       <c r="B47" s="3">
-        <v>16.920110000000001</v>
+        <v>13.78823</v>
       </c>
       <c r="C47" s="3">
-        <v>6.3865020000000001</v>
+        <v>6.4507849999999998</v>
       </c>
       <c r="D47" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>6.4789009999999994E-2</v>
+        <v>6.4739229999999995E-2</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99876770000000004</v>
+        <v>0.99876310000000001</v>
       </c>
       <c r="H47" s="5">
-        <v>4.2105660000000003E-5</v>
+        <v>4.208034E-5</v>
       </c>
       <c r="I47" s="3">
-        <v>0.49625960000000002</v>
+        <v>0.44988260000000002</v>
       </c>
       <c r="J47" s="3">
-        <v>17.04524</v>
+        <v>17.080220000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>5.973109</v>
+        <v>11.91695</v>
       </c>
       <c r="L47" s="3">
-        <v>14.38143</v>
+        <v>28.1127</v>
       </c>
       <c r="M47" s="3">
-        <v>4.1995139999999997</v>
+        <v>8.3784480000000006</v>
       </c>
       <c r="N47" s="3">
-        <v>0.81002549999999995</v>
+        <v>0.80208100000000004</v>
       </c>
       <c r="O47" s="3">
-        <v>992.1585</v>
+        <v>992.15530000000001</v>
       </c>
       <c r="P47" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889770040000002</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117269109999995</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45119.492685185185</v>
+        <v>45119.492905092593</v>
       </c>
       <c r="B48" s="3">
-        <v>15.813549999999999</v>
+        <v>13.783989999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>6.5168990000000004</v>
+        <v>6.4518509999999996</v>
       </c>
       <c r="D48" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E48" s="3">
-        <v>6.4779829999999997E-2</v>
+        <v>6.4738619999999997E-2</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99876779999999998</v>
+        <v>0.99876299999999996</v>
       </c>
       <c r="H48" s="5">
-        <v>4.2106020000000001E-5</v>
+        <v>4.2080029999999999E-5</v>
       </c>
       <c r="I48" s="3">
-        <v>0.46754990000000002</v>
+        <v>0.45621289999999998</v>
       </c>
       <c r="J48" s="3">
-        <v>17.05227</v>
+        <v>17.080439999999999</v>
       </c>
       <c r="K48" s="3">
-        <v>6.5297200000000002</v>
+        <v>11.95964</v>
       </c>
       <c r="L48" s="3">
-        <v>15.66723</v>
+        <v>28.211480000000002</v>
       </c>
       <c r="M48" s="3">
-        <v>4.5908499999999997</v>
+        <v>8.4084649999999996</v>
       </c>
       <c r="N48" s="3">
-        <v>0.81</v>
+        <v>0.80185320000000004</v>
       </c>
       <c r="O48" s="3">
-        <v>992.16740000000004</v>
+        <v>992.15650000000005</v>
       </c>
       <c r="P48" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889770040000002</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117269109999995</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45119.492696759262</v>
+        <v>45119.49291666667</v>
       </c>
       <c r="B49" s="3">
-        <v>15.70593</v>
+        <v>13.77974</v>
       </c>
       <c r="C49" s="3">
-        <v>6.5252400000000002</v>
+        <v>6.4529180000000004</v>
       </c>
       <c r="D49" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>6.4779009999999998E-2</v>
+        <v>6.4738000000000004E-2</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99876770000000004</v>
+        <v>0.99876299999999996</v>
       </c>
       <c r="H49" s="5">
-        <v>4.2105689999999998E-5</v>
+        <v>4.2079719999999998E-5</v>
       </c>
       <c r="I49" s="3">
-        <v>0.4663853</v>
+        <v>0.46254319999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>17.05283</v>
+        <v>17.080660000000002</v>
       </c>
       <c r="K49" s="3">
-        <v>6.5731529999999996</v>
+        <v>12.00234</v>
       </c>
       <c r="L49" s="3">
-        <v>15.767160000000001</v>
+        <v>28.310269999999999</v>
       </c>
       <c r="M49" s="3">
-        <v>4.6213870000000004</v>
+        <v>8.4384820000000005</v>
       </c>
       <c r="N49" s="3">
-        <v>0.81</v>
+        <v>0.80162540000000004</v>
       </c>
       <c r="O49" s="3">
-        <v>992.16830000000004</v>
+        <v>992.15769999999998</v>
       </c>
       <c r="P49" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889770040000002</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117269109999995</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45119.492708333331</v>
+        <v>45119.492928240739</v>
       </c>
       <c r="B50" s="3">
-        <v>15.59831</v>
+        <v>14.00273</v>
       </c>
       <c r="C50" s="3">
-        <v>6.533582</v>
+        <v>6.6351589999999998</v>
       </c>
       <c r="D50" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E50" s="3">
-        <v>6.4778180000000005E-2</v>
+        <v>6.4739779999999997E-2</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99876770000000004</v>
+        <v>0.99876390000000004</v>
       </c>
       <c r="H50" s="5">
-        <v>4.2105370000000003E-5</v>
+        <v>4.2085010000000002E-5</v>
       </c>
       <c r="I50" s="3">
-        <v>0.46522079999999999</v>
+        <v>0.35805090000000001</v>
       </c>
       <c r="J50" s="3">
-        <v>17.05339</v>
+        <v>17.079160000000002</v>
       </c>
       <c r="K50" s="3">
-        <v>6.616587</v>
+        <v>13.192209999999999</v>
       </c>
       <c r="L50" s="3">
-        <v>15.867100000000001</v>
+        <v>31.051690000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>4.6519240000000002</v>
+        <v>9.2750450000000004</v>
       </c>
       <c r="N50" s="3">
-        <v>0.81</v>
+        <v>0.79363819999999996</v>
       </c>
       <c r="O50" s="3">
-        <v>992.16920000000005</v>
+        <v>992.13289999999995</v>
       </c>
       <c r="P50" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889762359999999</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117276439999998</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45119.492719907408</v>
+        <v>45119.492939814816</v>
       </c>
       <c r="B51" s="3">
-        <v>14.71823</v>
+        <v>14.013730000000001</v>
       </c>
       <c r="C51" s="3">
-        <v>6.4552969999999998</v>
+        <v>6.6460939999999997</v>
       </c>
       <c r="D51" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E51" s="3">
-        <v>6.4762440000000004E-2</v>
+        <v>6.473959E-2</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99876580000000004</v>
+        <v>0.99876399999999999</v>
       </c>
       <c r="H51" s="5">
-        <v>4.2095300000000003E-5</v>
+        <v>4.2085120000000003E-5</v>
       </c>
       <c r="I51" s="3">
-        <v>0.49044650000000001</v>
+        <v>0.35483350000000002</v>
       </c>
       <c r="J51" s="3">
-        <v>17.06343</v>
+        <v>17.079129999999999</v>
       </c>
       <c r="K51" s="3">
-        <v>7.2285599999999999</v>
+        <v>13.26872</v>
       </c>
       <c r="L51" s="3">
-        <v>17.287120000000002</v>
+        <v>31.228159999999999</v>
       </c>
       <c r="M51" s="3">
-        <v>5.5514419999999998</v>
+        <v>9.3288349999999998</v>
       </c>
       <c r="N51" s="3">
-        <v>0.78728969999999998</v>
+        <v>0.79303129999999999</v>
       </c>
       <c r="O51" s="3">
-        <v>992.15250000000003</v>
+        <v>992.13199999999995</v>
       </c>
       <c r="P51" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889762359999999</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117276439999998</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45119.492731481485</v>
+        <v>45119.492951388886</v>
       </c>
       <c r="B52" s="3">
-        <v>14.64709</v>
+        <v>14.02473</v>
       </c>
       <c r="C52" s="3">
-        <v>6.4540160000000002</v>
+        <v>6.6570299999999998</v>
       </c>
       <c r="D52" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>6.4761399999999997E-2</v>
+        <v>6.4739409999999997E-2</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99876569999999998</v>
+        <v>0.99876399999999999</v>
       </c>
       <c r="H52" s="5">
-        <v>4.2094780000000001E-5</v>
+        <v>4.2085239999999998E-5</v>
       </c>
       <c r="I52" s="3">
-        <v>0.4911451</v>
+        <v>0.35161609999999999</v>
       </c>
       <c r="J52" s="3">
-        <v>17.064119999999999</v>
+        <v>17.079090000000001</v>
       </c>
       <c r="K52" s="3">
-        <v>7.2735700000000003</v>
+        <v>13.345219999999999</v>
       </c>
       <c r="L52" s="3">
-        <v>17.39143</v>
+        <v>31.404620000000001</v>
       </c>
       <c r="M52" s="3">
-        <v>5.6081190000000003</v>
+        <v>9.3826269999999994</v>
       </c>
       <c r="N52" s="3">
-        <v>0.78607819999999995</v>
+        <v>0.79242440000000003</v>
       </c>
       <c r="O52" s="3">
-        <v>992.15179999999998</v>
+        <v>992.13120000000004</v>
       </c>
       <c r="P52" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889762359999999</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117276439999998</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45119.492743055554</v>
+        <v>45119.492962962962</v>
       </c>
       <c r="B53" s="3">
-        <v>14.575939999999999</v>
+        <v>14.13627</v>
       </c>
       <c r="C53" s="3">
-        <v>6.4527340000000004</v>
+        <v>6.6548059999999998</v>
       </c>
       <c r="D53" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>6.4760349999999994E-2</v>
+        <v>6.4734959999999994E-2</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99876560000000003</v>
+        <v>0.9987627</v>
       </c>
       <c r="H53" s="5">
-        <v>4.2094249999999998E-5</v>
+        <v>4.2078289999999999E-5</v>
       </c>
       <c r="I53" s="3">
-        <v>0.49184369999999999</v>
+        <v>0.46509089999999997</v>
       </c>
       <c r="J53" s="3">
-        <v>17.064810000000001</v>
+        <v>17.07469</v>
       </c>
       <c r="K53" s="3">
-        <v>7.3185799999999999</v>
+        <v>14.11064</v>
       </c>
       <c r="L53" s="3">
-        <v>17.495750000000001</v>
+        <v>33.171100000000003</v>
       </c>
       <c r="M53" s="3">
-        <v>5.6647959999999999</v>
+        <v>9.9207689999999999</v>
       </c>
       <c r="N53" s="3">
-        <v>0.78486679999999998</v>
+        <v>0.79996370000000006</v>
       </c>
       <c r="O53" s="3">
-        <v>992.15110000000004</v>
+        <v>992.13919999999996</v>
       </c>
       <c r="P53" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889762359999999</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117276439999998</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45119.492754629631</v>
+        <v>45119.492974537039</v>
       </c>
       <c r="B54" s="3">
-        <v>14.26693</v>
+        <v>14.147550000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>6.4235280000000001</v>
+        <v>6.6588469999999997</v>
       </c>
       <c r="D54" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>6.4754909999999999E-2</v>
+        <v>6.4734760000000002E-2</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99876489999999996</v>
+        <v>0.99876259999999994</v>
       </c>
       <c r="H54" s="5">
-        <v>4.2090689999999999E-5</v>
+        <v>4.2078030000000001E-5</v>
       </c>
       <c r="I54" s="3">
-        <v>0.39036359999999998</v>
+        <v>0.46884199999999998</v>
       </c>
       <c r="J54" s="3">
-        <v>17.06193</v>
+        <v>17.07442</v>
       </c>
       <c r="K54" s="3">
-        <v>8.3395519999999994</v>
+        <v>14.179830000000001</v>
       </c>
       <c r="L54" s="3">
-        <v>19.844909999999999</v>
+        <v>33.330680000000001</v>
       </c>
       <c r="M54" s="3">
-        <v>5.925357</v>
+        <v>9.969417</v>
       </c>
       <c r="N54" s="3">
-        <v>0.79169909999999999</v>
+        <v>0.80019960000000001</v>
       </c>
       <c r="O54" s="3">
-        <v>992.11649999999997</v>
+        <v>992.13909999999998</v>
       </c>
       <c r="P54" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889762359999999</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117276439999998</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45119.492766203701</v>
+        <v>45119.492986111109</v>
       </c>
       <c r="B55" s="3">
-        <v>14.23141</v>
+        <v>14.15884</v>
       </c>
       <c r="C55" s="3">
-        <v>6.4202500000000002</v>
+        <v>6.6628879999999997</v>
       </c>
       <c r="D55" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>6.4754279999999997E-2</v>
+        <v>6.4734570000000005E-2</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99876489999999996</v>
+        <v>0.99876259999999994</v>
       </c>
       <c r="H55" s="5">
-        <v>4.2090279999999998E-5</v>
+        <v>4.2077779999999997E-5</v>
       </c>
       <c r="I55" s="3">
-        <v>0.38526690000000002</v>
+        <v>0.47259299999999999</v>
       </c>
       <c r="J55" s="3">
-        <v>17.061979999999998</v>
+        <v>17.07414</v>
       </c>
       <c r="K55" s="3">
-        <v>8.408925</v>
+        <v>14.249029999999999</v>
       </c>
       <c r="L55" s="3">
-        <v>20.004770000000001</v>
+        <v>33.490250000000003</v>
       </c>
       <c r="M55" s="3">
-        <v>5.9585460000000001</v>
+        <v>10.01806</v>
       </c>
       <c r="N55" s="3">
-        <v>0.79160430000000004</v>
+        <v>0.80043549999999997</v>
       </c>
       <c r="O55" s="3">
-        <v>992.11419999999998</v>
+        <v>992.13890000000004</v>
       </c>
       <c r="P55" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45119.492777777778</v>
+        <v>45119.492997685185</v>
       </c>
       <c r="B56" s="3">
-        <v>14.19589</v>
+        <v>14.11192</v>
       </c>
       <c r="C56" s="3">
-        <v>6.4169720000000003</v>
+        <v>6.6702839999999997</v>
       </c>
       <c r="D56" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E56" s="3">
-        <v>6.4753640000000001E-2</v>
+        <v>6.4744919999999997E-2</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99876480000000001</v>
+        <v>0.99876379999999998</v>
       </c>
       <c r="H56" s="5">
-        <v>4.2089870000000003E-5</v>
+        <v>4.2080560000000002E-5</v>
       </c>
       <c r="I56" s="3">
-        <v>0.38017010000000001</v>
+        <v>0.4511348</v>
       </c>
       <c r="J56" s="3">
-        <v>17.06203</v>
+        <v>17.074369999999998</v>
       </c>
       <c r="K56" s="3">
-        <v>8.4782980000000006</v>
+        <v>14.96682</v>
       </c>
       <c r="L56" s="3">
-        <v>20.164639999999999</v>
+        <v>36.783050000000003</v>
       </c>
       <c r="M56" s="3">
-        <v>5.9917360000000004</v>
+        <v>11.02115</v>
       </c>
       <c r="N56" s="3">
-        <v>0.79150960000000004</v>
+        <v>0.80069299999999999</v>
       </c>
       <c r="O56" s="3">
-        <v>992.11189999999999</v>
+        <v>992.11360000000002</v>
       </c>
       <c r="P56" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45119.492789351854</v>
+        <v>45119.493009259262</v>
       </c>
       <c r="B57" s="3">
-        <v>14.05639</v>
+        <v>14.111800000000001</v>
       </c>
       <c r="C57" s="3">
-        <v>6.651764</v>
+        <v>6.6706599999999998</v>
       </c>
       <c r="D57" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E57" s="3">
-        <v>6.4751790000000004E-2</v>
+        <v>6.4745399999999995E-2</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0.9987646</v>
+        <v>0.99876390000000004</v>
       </c>
       <c r="H57" s="5">
-        <v>4.208866E-5</v>
+        <v>4.2080560000000002E-5</v>
       </c>
       <c r="I57" s="3">
-        <v>0.4113501</v>
+        <v>0.45245760000000002</v>
       </c>
       <c r="J57" s="3">
-        <v>17.068539999999999</v>
+        <v>17.074280000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>9.1430959999999999</v>
+        <v>15.023709999999999</v>
       </c>
       <c r="L57" s="3">
-        <v>21.707039999999999</v>
+        <v>37.005110000000002</v>
       </c>
       <c r="M57" s="3">
-        <v>6.4480880000000003</v>
+        <v>11.088800000000001</v>
       </c>
       <c r="N57" s="3">
-        <v>0.79932270000000005</v>
+        <v>0.80087319999999995</v>
       </c>
       <c r="O57" s="3">
-        <v>992.13660000000004</v>
+        <v>992.11239999999998</v>
       </c>
       <c r="P57" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45119.492800925924</v>
+        <v>45119.493020833332</v>
       </c>
       <c r="B58" s="3">
-        <v>14.04241</v>
+        <v>14.11168</v>
       </c>
       <c r="C58" s="3">
-        <v>6.6641300000000001</v>
+        <v>6.671036</v>
       </c>
       <c r="D58" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E58" s="3">
-        <v>6.4751569999999994E-2</v>
+        <v>6.4745869999999997E-2</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0.9987646</v>
+        <v>0.99876390000000004</v>
       </c>
       <c r="H58" s="5">
-        <v>4.2088529999999997E-5</v>
+        <v>4.2080560000000002E-5</v>
       </c>
       <c r="I58" s="3">
-        <v>0.41076489999999999</v>
+        <v>0.45378039999999997</v>
       </c>
       <c r="J58" s="3">
-        <v>17.068819999999999</v>
+        <v>17.074200000000001</v>
       </c>
       <c r="K58" s="3">
-        <v>9.2022279999999999</v>
+        <v>15.0806</v>
       </c>
       <c r="L58" s="3">
-        <v>21.843789999999998</v>
+        <v>37.227179999999997</v>
       </c>
       <c r="M58" s="3">
-        <v>6.4783850000000003</v>
+        <v>11.15644</v>
       </c>
       <c r="N58" s="3">
-        <v>0.79992589999999997</v>
+        <v>0.80105349999999997</v>
       </c>
       <c r="O58" s="3">
-        <v>992.13720000000001</v>
+        <v>992.11120000000005</v>
       </c>
       <c r="P58" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45119.492812500001</v>
+        <v>45119.493032407408</v>
       </c>
       <c r="B59" s="3">
-        <v>14.028420000000001</v>
+        <v>14.16498</v>
       </c>
       <c r="C59" s="3">
-        <v>6.6764970000000003</v>
+        <v>6.393135</v>
       </c>
       <c r="D59" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E59" s="3">
-        <v>6.4751359999999994E-2</v>
+        <v>6.4742019999999997E-2</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99876450000000006</v>
+        <v>0.99876339999999997</v>
       </c>
       <c r="H59" s="5">
-        <v>4.2088390000000001E-5</v>
+        <v>4.2081830000000003E-5</v>
       </c>
       <c r="I59" s="3">
-        <v>0.41017979999999998</v>
+        <v>0.37276749999999997</v>
       </c>
       <c r="J59" s="3">
-        <v>17.069109999999998</v>
+        <v>17.07826</v>
       </c>
       <c r="K59" s="3">
-        <v>9.2613599999999998</v>
+        <v>16.091000000000001</v>
       </c>
       <c r="L59" s="3">
-        <v>21.980540000000001</v>
+        <v>37.950789999999998</v>
       </c>
       <c r="M59" s="3">
-        <v>6.5086830000000004</v>
+        <v>11.3775</v>
       </c>
       <c r="N59" s="3">
-        <v>0.80052920000000005</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O59" s="3">
-        <v>992.13779999999997</v>
+        <v>992.17070000000001</v>
       </c>
       <c r="P59" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45119.492824074077</v>
+        <v>45119.493043981478</v>
       </c>
       <c r="B60" s="3">
-        <v>13.907629999999999</v>
+        <v>14.166880000000001</v>
       </c>
       <c r="C60" s="3">
-        <v>6.4806499999999998</v>
+        <v>6.3780260000000002</v>
       </c>
       <c r="D60" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E60" s="3">
-        <v>6.47485E-2</v>
+        <v>6.4742049999999995E-2</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -3304,52 +4208,52 @@
         <v>0.99876339999999997</v>
       </c>
       <c r="H60" s="5">
-        <v>4.2082570000000001E-5</v>
+        <v>4.2081959999999998E-5</v>
       </c>
       <c r="I60" s="3">
-        <v>0.3525295</v>
+        <v>0.36777310000000002</v>
       </c>
       <c r="J60" s="3">
-        <v>17.07244</v>
+        <v>17.078489999999999</v>
       </c>
       <c r="K60" s="3">
-        <v>10.37255</v>
+        <v>16.16309</v>
       </c>
       <c r="L60" s="3">
-        <v>24.547350000000002</v>
+        <v>38.065710000000003</v>
       </c>
       <c r="M60" s="3">
-        <v>7.2926260000000003</v>
+        <v>11.41254</v>
       </c>
       <c r="N60" s="3">
-        <v>0.80067339999999998</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O60" s="3">
-        <v>992.1386</v>
+        <v>992.17330000000004</v>
       </c>
       <c r="P60" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45119.492835648147</v>
+        <v>45119.493055555555</v>
       </c>
       <c r="B61" s="3">
-        <v>13.897970000000001</v>
+        <v>14.16877</v>
       </c>
       <c r="C61" s="3">
-        <v>6.4751469999999998</v>
+        <v>6.3629160000000002</v>
       </c>
       <c r="D61" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E61" s="3">
-        <v>6.474829E-2</v>
+        <v>6.4742069999999999E-2</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3358,1332 +4262,306 @@
         <v>0.99876339999999997</v>
       </c>
       <c r="H61" s="5">
-        <v>4.2082220000000003E-5</v>
+        <v>4.2082090000000001E-5</v>
       </c>
       <c r="I61" s="3">
-        <v>0.35008450000000002</v>
+        <v>0.36277880000000001</v>
       </c>
       <c r="J61" s="3">
-        <v>17.072769999999998</v>
+        <v>17.078720000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>10.448079999999999</v>
+        <v>16.23518</v>
       </c>
       <c r="L61" s="3">
-        <v>24.721979999999999</v>
+        <v>38.180630000000001</v>
       </c>
       <c r="M61" s="3">
-        <v>7.3457290000000004</v>
+        <v>11.44758</v>
       </c>
       <c r="N61" s="3">
-        <v>0.80085399999999995</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O61" s="3">
-        <v>992.13919999999996</v>
+        <v>992.17600000000004</v>
       </c>
       <c r="P61" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q61" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45119.492847222224</v>
+        <v>45119.493067129632</v>
       </c>
       <c r="B62" s="3">
-        <v>13.888310000000001</v>
+        <v>13.914859999999999</v>
       </c>
       <c r="C62" s="3">
-        <v>6.4696439999999997</v>
+        <v>6.5314480000000001</v>
       </c>
       <c r="D62" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E62" s="3">
-        <v>6.4748100000000003E-2</v>
+        <v>6.4740290000000006E-2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99876330000000002</v>
+        <v>0.99876319999999996</v>
       </c>
       <c r="H62" s="5">
-        <v>4.208188E-5</v>
+        <v>4.2081040000000002E-5</v>
       </c>
       <c r="I62" s="3">
-        <v>0.34763939999999999</v>
+        <v>0.42081289999999999</v>
       </c>
       <c r="J62" s="3">
-        <v>17.073090000000001</v>
+        <v>17.078679999999999</v>
       </c>
       <c r="K62" s="3">
-        <v>10.52361</v>
+        <v>16.950780000000002</v>
       </c>
       <c r="L62" s="3">
-        <v>24.896599999999999</v>
+        <v>39.78539</v>
       </c>
       <c r="M62" s="3">
-        <v>7.3988329999999998</v>
+        <v>11.937329999999999</v>
       </c>
       <c r="N62" s="3">
-        <v>0.80103460000000004</v>
+        <v>0.80864360000000002</v>
       </c>
       <c r="O62" s="3">
-        <v>992.13980000000004</v>
+        <v>992.15189999999996</v>
       </c>
       <c r="P62" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q62" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45119.492858796293</v>
+        <v>45119.493078703701</v>
       </c>
       <c r="B63" s="3">
-        <v>13.865550000000001</v>
+        <v>13.90241</v>
       </c>
       <c r="C63" s="3">
-        <v>6.4290589999999996</v>
+        <v>6.5342140000000004</v>
       </c>
       <c r="D63" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E63" s="3">
-        <v>6.4752119999999996E-2</v>
+        <v>6.4740110000000003E-2</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>0.99876450000000006</v>
+        <v>0.99876319999999996</v>
       </c>
       <c r="H63" s="5">
-        <v>4.2088359999999999E-5</v>
+        <v>4.208101E-5</v>
       </c>
       <c r="I63" s="3">
-        <v>0.33055859999999998</v>
+        <v>0.42211470000000001</v>
       </c>
       <c r="J63" s="3">
-        <v>17.077349999999999</v>
+        <v>17.078769999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>11.31926</v>
+        <v>17.012440000000002</v>
       </c>
       <c r="L63" s="3">
-        <v>26.726569999999999</v>
+        <v>39.888820000000003</v>
       </c>
       <c r="M63" s="3">
-        <v>7.9582319999999998</v>
+        <v>11.9689</v>
       </c>
       <c r="N63" s="3">
-        <v>0.80867650000000002</v>
+        <v>0.80905510000000003</v>
       </c>
       <c r="O63" s="3">
-        <v>992.13109999999995</v>
+        <v>992.15189999999996</v>
       </c>
       <c r="P63" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q63" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45119.49287037037</v>
+        <v>45119.493090277778</v>
       </c>
       <c r="B64" s="3">
-        <v>13.86164</v>
+        <v>13.88996</v>
       </c>
       <c r="C64" s="3">
-        <v>6.4224309999999996</v>
+        <v>6.5369799999999998</v>
       </c>
       <c r="D64" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E64" s="3">
-        <v>6.4752270000000001E-2</v>
+        <v>6.4739920000000006E-2</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0.9987646</v>
+        <v>0.99876310000000001</v>
       </c>
       <c r="H64" s="5">
-        <v>4.2088590000000002E-5</v>
+        <v>4.2080979999999998E-5</v>
       </c>
       <c r="I64" s="3">
-        <v>0.32832050000000002</v>
+        <v>0.42341640000000003</v>
       </c>
       <c r="J64" s="3">
-        <v>17.077660000000002</v>
+        <v>17.078859999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>11.38785</v>
+        <v>17.074100000000001</v>
       </c>
       <c r="L64" s="3">
-        <v>26.88456</v>
+        <v>39.992240000000002</v>
       </c>
       <c r="M64" s="3">
-        <v>8.0064539999999997</v>
+        <v>12.00047</v>
       </c>
       <c r="N64" s="3">
-        <v>0.80910349999999998</v>
+        <v>0.80946680000000004</v>
       </c>
       <c r="O64" s="3">
-        <v>992.13059999999996</v>
+        <v>992.15200000000004</v>
       </c>
       <c r="P64" s="3">
-        <v>46.889775030000003</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q64" s="3">
-        <v>-91.117258179999993</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45119.492881944447</v>
+        <v>45119.493101851855</v>
       </c>
       <c r="B65" s="3">
-        <v>13.85773</v>
+        <v>14.23326</v>
       </c>
       <c r="C65" s="3">
-        <v>6.4158030000000004</v>
+        <v>6.3392289999999996</v>
       </c>
       <c r="D65" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E65" s="3">
-        <v>6.4752439999999994E-2</v>
+        <v>6.4742140000000004E-2</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>0.9987646</v>
+        <v>0.99876419999999999</v>
       </c>
       <c r="H65" s="5">
-        <v>4.2088819999999997E-5</v>
+        <v>4.2086599999999998E-5</v>
       </c>
       <c r="I65" s="3">
-        <v>0.32608239999999999</v>
+        <v>0.42661680000000002</v>
       </c>
       <c r="J65" s="3">
-        <v>17.077960000000001</v>
+        <v>17.077290000000001</v>
       </c>
       <c r="K65" s="3">
-        <v>11.456440000000001</v>
+        <v>17.974589999999999</v>
       </c>
       <c r="L65" s="3">
-        <v>27.042549999999999</v>
+        <v>42.086210000000001</v>
       </c>
       <c r="M65" s="3">
-        <v>8.0546769999999999</v>
+        <v>12.6374</v>
       </c>
       <c r="N65" s="3">
-        <v>0.80953039999999998</v>
+        <v>0.80198700000000001</v>
       </c>
       <c r="O65" s="3">
-        <v>992.13019999999995</v>
+        <v>992.1508</v>
       </c>
       <c r="P65" s="3">
-        <v>46.889770040000002</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q65" s="3">
-        <v>-91.117269109999995</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45119.492893518516</v>
+        <v>45119.493113425924</v>
       </c>
       <c r="B66" s="3">
-        <v>13.78823</v>
+        <v>14.24668</v>
       </c>
       <c r="C66" s="3">
-        <v>6.4507849999999998</v>
+        <v>6.3319580000000002</v>
       </c>
       <c r="D66" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E66" s="3">
-        <v>6.4739229999999995E-2</v>
+        <v>6.4742229999999998E-2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99876310000000001</v>
+        <v>0.99876419999999999</v>
       </c>
       <c r="H66" s="5">
-        <v>4.208034E-5</v>
+        <v>4.2086889999999998E-5</v>
       </c>
       <c r="I66" s="3">
-        <v>0.44988260000000002</v>
+        <v>0.42803330000000001</v>
       </c>
       <c r="J66" s="3">
-        <v>17.080220000000001</v>
+        <v>17.077200000000001</v>
       </c>
       <c r="K66" s="3">
-        <v>11.91695</v>
+        <v>18.03979</v>
       </c>
       <c r="L66" s="3">
-        <v>28.1127</v>
+        <v>42.236789999999999</v>
       </c>
       <c r="M66" s="3">
-        <v>8.3784480000000006</v>
+        <v>12.68324</v>
       </c>
       <c r="N66" s="3">
-        <v>0.80208100000000004</v>
+        <v>0.80173989999999995</v>
       </c>
       <c r="O66" s="3">
-        <v>992.15530000000001</v>
+        <v>992.15020000000004</v>
       </c>
       <c r="P66" s="3">
-        <v>46.889770040000002</v>
+        <v>46.889753259999999</v>
       </c>
       <c r="Q66" s="3">
-        <v>-91.117269109999995</v>
+        <v>-91.117285120000005</v>
       </c>
       <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45119.492905092593</v>
-      </c>
-      <c r="B67" s="3">
-        <v>13.783989999999999</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6.4518509999999996</v>
-      </c>
-      <c r="D67" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>6.4738619999999997E-2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99876299999999996</v>
-      </c>
-      <c r="H67" s="5">
-        <v>4.2080029999999999E-5</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.45621289999999998</v>
-      </c>
-      <c r="J67" s="3">
-        <v>17.080439999999999</v>
-      </c>
-      <c r="K67" s="3">
-        <v>11.95964</v>
-      </c>
-      <c r="L67" s="3">
-        <v>28.211480000000002</v>
-      </c>
-      <c r="M67" s="3">
-        <v>8.4084649999999996</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.80185320000000004</v>
-      </c>
-      <c r="O67" s="3">
-        <v>992.15650000000005</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.889770040000002</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.117269109999995</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45119.49291666667</v>
-      </c>
-      <c r="B68" s="3">
-        <v>13.77974</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6.4529180000000004</v>
-      </c>
-      <c r="D68" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E68" s="3">
-        <v>6.4738000000000004E-2</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99876299999999996</v>
-      </c>
-      <c r="H68" s="5">
-        <v>4.2079719999999998E-5</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.46254319999999999</v>
-      </c>
-      <c r="J68" s="3">
-        <v>17.080660000000002</v>
-      </c>
-      <c r="K68" s="3">
-        <v>12.00234</v>
-      </c>
-      <c r="L68" s="3">
-        <v>28.310269999999999</v>
-      </c>
-      <c r="M68" s="3">
-        <v>8.4384820000000005</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.80162540000000004</v>
-      </c>
-      <c r="O68" s="3">
-        <v>992.15769999999998</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.889770040000002</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.117269109999995</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45119.492928240739</v>
-      </c>
-      <c r="B69" s="3">
-        <v>14.00273</v>
-      </c>
-      <c r="C69" s="3">
-        <v>6.6351589999999998</v>
-      </c>
-      <c r="D69" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>6.4739779999999997E-2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99876390000000004</v>
-      </c>
-      <c r="H69" s="5">
-        <v>4.2085010000000002E-5</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.35805090000000001</v>
-      </c>
-      <c r="J69" s="3">
-        <v>17.079160000000002</v>
-      </c>
-      <c r="K69" s="3">
-        <v>13.192209999999999</v>
-      </c>
-      <c r="L69" s="3">
-        <v>31.051690000000001</v>
-      </c>
-      <c r="M69" s="3">
-        <v>9.2750450000000004</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.79363819999999996</v>
-      </c>
-      <c r="O69" s="3">
-        <v>992.13289999999995</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.889762359999999</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.117276439999998</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45119.492939814816</v>
-      </c>
-      <c r="B70" s="3">
-        <v>14.013730000000001</v>
-      </c>
-      <c r="C70" s="3">
-        <v>6.6460939999999997</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>6.473959E-2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99876399999999999</v>
-      </c>
-      <c r="H70" s="5">
-        <v>4.2085120000000003E-5</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.35483350000000002</v>
-      </c>
-      <c r="J70" s="3">
-        <v>17.079129999999999</v>
-      </c>
-      <c r="K70" s="3">
-        <v>13.26872</v>
-      </c>
-      <c r="L70" s="3">
-        <v>31.228159999999999</v>
-      </c>
-      <c r="M70" s="3">
-        <v>9.3288349999999998</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.79303129999999999</v>
-      </c>
-      <c r="O70" s="3">
-        <v>992.13199999999995</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.889762359999999</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.117276439999998</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45119.492951388886</v>
-      </c>
-      <c r="B71" s="3">
-        <v>14.02473</v>
-      </c>
-      <c r="C71" s="3">
-        <v>6.6570299999999998</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>6.4739409999999997E-2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99876399999999999</v>
-      </c>
-      <c r="H71" s="5">
-        <v>4.2085239999999998E-5</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.35161609999999999</v>
-      </c>
-      <c r="J71" s="3">
-        <v>17.079090000000001</v>
-      </c>
-      <c r="K71" s="3">
-        <v>13.345219999999999</v>
-      </c>
-      <c r="L71" s="3">
-        <v>31.404620000000001</v>
-      </c>
-      <c r="M71" s="3">
-        <v>9.3826269999999994</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.79242440000000003</v>
-      </c>
-      <c r="O71" s="3">
-        <v>992.13120000000004</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.889762359999999</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.117276439999998</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45119.492962962962</v>
-      </c>
-      <c r="B72" s="3">
-        <v>14.13627</v>
-      </c>
-      <c r="C72" s="3">
-        <v>6.6548059999999998</v>
-      </c>
-      <c r="D72" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E72" s="3">
-        <v>6.4734959999999994E-2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.9987627</v>
-      </c>
-      <c r="H72" s="5">
-        <v>4.2078289999999999E-5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0.46509089999999997</v>
-      </c>
-      <c r="J72" s="3">
-        <v>17.07469</v>
-      </c>
-      <c r="K72" s="3">
-        <v>14.11064</v>
-      </c>
-      <c r="L72" s="3">
-        <v>33.171100000000003</v>
-      </c>
-      <c r="M72" s="3">
-        <v>9.9207689999999999</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.79996370000000006</v>
-      </c>
-      <c r="O72" s="3">
-        <v>992.13919999999996</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.889762359999999</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.117276439999998</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45119.492974537039</v>
-      </c>
-      <c r="B73" s="3">
-        <v>14.147550000000001</v>
-      </c>
-      <c r="C73" s="3">
-        <v>6.6588469999999997</v>
-      </c>
-      <c r="D73" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>6.4734760000000002E-2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99876259999999994</v>
-      </c>
-      <c r="H73" s="5">
-        <v>4.2078030000000001E-5</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.46884199999999998</v>
-      </c>
-      <c r="J73" s="3">
-        <v>17.07442</v>
-      </c>
-      <c r="K73" s="3">
-        <v>14.179830000000001</v>
-      </c>
-      <c r="L73" s="3">
-        <v>33.330680000000001</v>
-      </c>
-      <c r="M73" s="3">
-        <v>9.969417</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.80019960000000001</v>
-      </c>
-      <c r="O73" s="3">
-        <v>992.13909999999998</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.889762359999999</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.117276439999998</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45119.492986111109</v>
-      </c>
-      <c r="B74" s="3">
-        <v>14.15884</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6.6628879999999997</v>
-      </c>
-      <c r="D74" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E74" s="3">
-        <v>6.4734570000000005E-2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99876259999999994</v>
-      </c>
-      <c r="H74" s="5">
-        <v>4.2077779999999997E-5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.47259299999999999</v>
-      </c>
-      <c r="J74" s="3">
-        <v>17.07414</v>
-      </c>
-      <c r="K74" s="3">
-        <v>14.249029999999999</v>
-      </c>
-      <c r="L74" s="3">
-        <v>33.490250000000003</v>
-      </c>
-      <c r="M74" s="3">
-        <v>10.01806</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.80043549999999997</v>
-      </c>
-      <c r="O74" s="3">
-        <v>992.13890000000004</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45119.492997685185</v>
-      </c>
-      <c r="B75" s="3">
-        <v>14.11192</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6.6702839999999997</v>
-      </c>
-      <c r="D75" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E75" s="3">
-        <v>6.4744919999999997E-2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99876379999999998</v>
-      </c>
-      <c r="H75" s="5">
-        <v>4.2080560000000002E-5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.4511348</v>
-      </c>
-      <c r="J75" s="3">
-        <v>17.074369999999998</v>
-      </c>
-      <c r="K75" s="3">
-        <v>14.96682</v>
-      </c>
-      <c r="L75" s="3">
-        <v>36.783050000000003</v>
-      </c>
-      <c r="M75" s="3">
-        <v>11.02115</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.80069299999999999</v>
-      </c>
-      <c r="O75" s="3">
-        <v>992.11360000000002</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45119.493009259262</v>
-      </c>
-      <c r="B76" s="3">
-        <v>14.111800000000001</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6.6706599999999998</v>
-      </c>
-      <c r="D76" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6.4745399999999995E-2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99876390000000004</v>
-      </c>
-      <c r="H76" s="5">
-        <v>4.2080560000000002E-5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.45245760000000002</v>
-      </c>
-      <c r="J76" s="3">
-        <v>17.074280000000002</v>
-      </c>
-      <c r="K76" s="3">
-        <v>15.023709999999999</v>
-      </c>
-      <c r="L76" s="3">
-        <v>37.005110000000002</v>
-      </c>
-      <c r="M76" s="3">
-        <v>11.088800000000001</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.80087319999999995</v>
-      </c>
-      <c r="O76" s="3">
-        <v>992.11239999999998</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45119.493020833332</v>
-      </c>
-      <c r="B77" s="3">
-        <v>14.11168</v>
-      </c>
-      <c r="C77" s="3">
-        <v>6.671036</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>6.4745869999999997E-2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99876390000000004</v>
-      </c>
-      <c r="H77" s="5">
-        <v>4.2080560000000002E-5</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.45378039999999997</v>
-      </c>
-      <c r="J77" s="3">
-        <v>17.074200000000001</v>
-      </c>
-      <c r="K77" s="3">
-        <v>15.0806</v>
-      </c>
-      <c r="L77" s="3">
-        <v>37.227179999999997</v>
-      </c>
-      <c r="M77" s="3">
-        <v>11.15644</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.80105349999999997</v>
-      </c>
-      <c r="O77" s="3">
-        <v>992.11120000000005</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45119.493032407408</v>
-      </c>
-      <c r="B78" s="3">
-        <v>14.16498</v>
-      </c>
-      <c r="C78" s="3">
-        <v>6.393135</v>
-      </c>
-      <c r="D78" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>6.4742019999999997E-2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99876339999999997</v>
-      </c>
-      <c r="H78" s="5">
-        <v>4.2081830000000003E-5</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.37276749999999997</v>
-      </c>
-      <c r="J78" s="3">
-        <v>17.07826</v>
-      </c>
-      <c r="K78" s="3">
-        <v>16.091000000000001</v>
-      </c>
-      <c r="L78" s="3">
-        <v>37.950789999999998</v>
-      </c>
-      <c r="M78" s="3">
-        <v>11.3775</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="O78" s="3">
-        <v>992.17070000000001</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45119.493043981478</v>
-      </c>
-      <c r="B79" s="3">
-        <v>14.166880000000001</v>
-      </c>
-      <c r="C79" s="3">
-        <v>6.3780260000000002</v>
-      </c>
-      <c r="D79" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>6.4742049999999995E-2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99876339999999997</v>
-      </c>
-      <c r="H79" s="5">
-        <v>4.2081959999999998E-5</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.36777310000000002</v>
-      </c>
-      <c r="J79" s="3">
-        <v>17.078489999999999</v>
-      </c>
-      <c r="K79" s="3">
-        <v>16.16309</v>
-      </c>
-      <c r="L79" s="3">
-        <v>38.065710000000003</v>
-      </c>
-      <c r="M79" s="3">
-        <v>11.41254</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="O79" s="3">
-        <v>992.17330000000004</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45119.493055555555</v>
-      </c>
-      <c r="B80" s="3">
-        <v>14.16877</v>
-      </c>
-      <c r="C80" s="3">
-        <v>6.3629160000000002</v>
-      </c>
-      <c r="D80" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E80" s="3">
-        <v>6.4742069999999999E-2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99876339999999997</v>
-      </c>
-      <c r="H80" s="5">
-        <v>4.2082090000000001E-5</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0.36277880000000001</v>
-      </c>
-      <c r="J80" s="3">
-        <v>17.078720000000001</v>
-      </c>
-      <c r="K80" s="3">
-        <v>16.23518</v>
-      </c>
-      <c r="L80" s="3">
-        <v>38.180630000000001</v>
-      </c>
-      <c r="M80" s="3">
-        <v>11.44758</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="O80" s="3">
-        <v>992.17600000000004</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45119.493067129632</v>
-      </c>
-      <c r="B81" s="3">
-        <v>13.914859999999999</v>
-      </c>
-      <c r="C81" s="3">
-        <v>6.5314480000000001</v>
-      </c>
-      <c r="D81" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E81" s="3">
-        <v>6.4740290000000006E-2</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99876319999999996</v>
-      </c>
-      <c r="H81" s="5">
-        <v>4.2081040000000002E-5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.42081289999999999</v>
-      </c>
-      <c r="J81" s="3">
-        <v>17.078679999999999</v>
-      </c>
-      <c r="K81" s="3">
-        <v>16.950780000000002</v>
-      </c>
-      <c r="L81" s="3">
-        <v>39.78539</v>
-      </c>
-      <c r="M81" s="3">
-        <v>11.937329999999999</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.80864360000000002</v>
-      </c>
-      <c r="O81" s="3">
-        <v>992.15189999999996</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45119.493078703701</v>
-      </c>
-      <c r="B82" s="3">
-        <v>13.90241</v>
-      </c>
-      <c r="C82" s="3">
-        <v>6.5342140000000004</v>
-      </c>
-      <c r="D82" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>6.4740110000000003E-2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99876319999999996</v>
-      </c>
-      <c r="H82" s="5">
-        <v>4.208101E-5</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0.42211470000000001</v>
-      </c>
-      <c r="J82" s="3">
-        <v>17.078769999999999</v>
-      </c>
-      <c r="K82" s="3">
-        <v>17.012440000000002</v>
-      </c>
-      <c r="L82" s="3">
-        <v>39.888820000000003</v>
-      </c>
-      <c r="M82" s="3">
-        <v>11.9689</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.80905510000000003</v>
-      </c>
-      <c r="O82" s="3">
-        <v>992.15189999999996</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45119.493090277778</v>
-      </c>
-      <c r="B83" s="3">
-        <v>13.88996</v>
-      </c>
-      <c r="C83" s="3">
-        <v>6.5369799999999998</v>
-      </c>
-      <c r="D83" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6.4739920000000006E-2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99876310000000001</v>
-      </c>
-      <c r="H83" s="5">
-        <v>4.2080979999999998E-5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0.42341640000000003</v>
-      </c>
-      <c r="J83" s="3">
-        <v>17.078859999999999</v>
-      </c>
-      <c r="K83" s="3">
-        <v>17.074100000000001</v>
-      </c>
-      <c r="L83" s="3">
-        <v>39.992240000000002</v>
-      </c>
-      <c r="M83" s="3">
-        <v>12.00047</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.80946680000000004</v>
-      </c>
-      <c r="O83" s="3">
-        <v>992.15200000000004</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>45119.493101851855</v>
-      </c>
-      <c r="B84" s="3">
-        <v>14.23326</v>
-      </c>
-      <c r="C84" s="3">
-        <v>6.3392289999999996</v>
-      </c>
-      <c r="D84" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E84" s="3">
-        <v>6.4742140000000004E-2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.99876419999999999</v>
-      </c>
-      <c r="H84" s="5">
-        <v>4.2086599999999998E-5</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0.42661680000000002</v>
-      </c>
-      <c r="J84" s="3">
-        <v>17.077290000000001</v>
-      </c>
-      <c r="K84" s="3">
-        <v>17.974589999999999</v>
-      </c>
-      <c r="L84" s="3">
-        <v>42.086210000000001</v>
-      </c>
-      <c r="M84" s="3">
-        <v>12.6374</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0.80198700000000001</v>
-      </c>
-      <c r="O84" s="3">
-        <v>992.1508</v>
-      </c>
-      <c r="P84" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>45119.493113425924</v>
-      </c>
-      <c r="B85" s="3">
-        <v>14.24668</v>
-      </c>
-      <c r="C85" s="3">
-        <v>6.3319580000000002</v>
-      </c>
-      <c r="D85" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E85" s="3">
-        <v>6.4742229999999998E-2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.99876419999999999</v>
-      </c>
-      <c r="H85" s="5">
-        <v>4.2086889999999998E-5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0.42803330000000001</v>
-      </c>
-      <c r="J85" s="3">
-        <v>17.077200000000001</v>
-      </c>
-      <c r="K85" s="3">
-        <v>18.03979</v>
-      </c>
-      <c r="L85" s="3">
-        <v>42.236789999999999</v>
-      </c>
-      <c r="M85" s="3">
-        <v>12.68324</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0.80173989999999995</v>
-      </c>
-      <c r="O85" s="3">
-        <v>992.15020000000004</v>
-      </c>
-      <c r="P85" s="3">
-        <v>46.889753259999999</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>-91.117285120000005</v>
-      </c>
-      <c r="R85" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
